--- a/Chess_Analysis.xlsx
+++ b/Chess_Analysis.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ethanmitten/Desktop/Data Analytics/Chess/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ethanmitten/Desktop/Data Analytics/Chess/Chess_Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF59ABBD-354C-5949-AA8D-DEB62E15D875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79076C9A-DCC0-DA41-9037-D0DCB405F7FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18800" yWindow="500" windowWidth="10000" windowHeight="16080" xr2:uid="{A2AABB3E-46A5-1A46-8474-12CBE0102FE3}"/>
+    <workbookView xWindow="900" yWindow="500" windowWidth="15220" windowHeight="16080" xr2:uid="{A2AABB3E-46A5-1A46-8474-12CBE0102FE3}"/>
   </bookViews>
   <sheets>
     <sheet name="Game_Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="66">
   <si>
     <t>Game_ID</t>
   </si>
@@ -208,6 +208,30 @@
   </si>
   <si>
     <t>Reti Opening</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>Ponziani Opening</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>England</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Iran</t>
   </si>
 </sst>
 </file>
@@ -562,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7978143-E563-EA42-9662-B3BE5C60ED47}">
-  <dimension ref="A1:AB26"/>
+  <dimension ref="A1:AC55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC26" sqref="AC26"/>
+    <sheetView tabSelected="1" topLeftCell="S35" workbookViewId="0">
+      <selection activeCell="AC55" sqref="AC55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2806,6 +2830,2502 @@
         <v>0.68299999999999994</v>
       </c>
     </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27">
+        <v>547</v>
+      </c>
+      <c r="D27" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27">
+        <v>44</v>
+      </c>
+      <c r="F27" s="1">
+        <v>44531</v>
+      </c>
+      <c r="G27" t="s">
+        <v>32</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0.64390000000000003</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0.77810000000000001</v>
+      </c>
+      <c r="J27" s="2">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="K27" s="2">
+        <v>0.432</v>
+      </c>
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
+        <v>9</v>
+      </c>
+      <c r="O27" s="3">
+        <v>13</v>
+      </c>
+      <c r="P27" s="3">
+        <v>7</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>2</v>
+      </c>
+      <c r="R27" s="3">
+        <v>7</v>
+      </c>
+      <c r="S27" s="3">
+        <v>3</v>
+      </c>
+      <c r="T27" s="3">
+        <v>3</v>
+      </c>
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="W27" s="2">
+        <v>0.68269999999999997</v>
+      </c>
+      <c r="X27" s="2">
+        <v>0.7256999999999999</v>
+      </c>
+      <c r="Y27" s="2">
+        <v>0.38340000000000002</v>
+      </c>
+      <c r="Z27" s="2">
+        <v>0.65189999999999992</v>
+      </c>
+      <c r="AA27" s="2">
+        <v>0.38650000000000001</v>
+      </c>
+      <c r="AB27" s="2">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28">
+        <v>560</v>
+      </c>
+      <c r="D28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28">
+        <v>10</v>
+      </c>
+      <c r="F28" s="1">
+        <v>44534</v>
+      </c>
+      <c r="G28" t="s">
+        <v>32</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0.5897</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0.47149999999999997</v>
+      </c>
+      <c r="J28" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="K28" s="2">
+        <v>0.111</v>
+      </c>
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>1</v>
+      </c>
+      <c r="O28" s="3">
+        <v>2</v>
+      </c>
+      <c r="P28" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>2</v>
+      </c>
+      <c r="R28" s="3">
+        <v>2</v>
+      </c>
+      <c r="S28" s="3">
+        <v>2</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="W28" s="2">
+        <v>0.54039999999999999</v>
+      </c>
+      <c r="X28" s="2">
+        <v>0.66379999999999995</v>
+      </c>
+      <c r="Y28" s="2">
+        <v>0.66280000000000006</v>
+      </c>
+      <c r="Z28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29">
+        <v>585</v>
+      </c>
+      <c r="D29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29">
+        <v>41</v>
+      </c>
+      <c r="F29" s="1">
+        <v>44534</v>
+      </c>
+      <c r="G29" t="s">
+        <v>32</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0.62109999999999999</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0.71479999999999999</v>
+      </c>
+      <c r="J29" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="K29" s="2">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>1</v>
+      </c>
+      <c r="N29" s="3">
+        <v>9</v>
+      </c>
+      <c r="O29" s="3">
+        <v>11</v>
+      </c>
+      <c r="P29" s="3">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>2</v>
+      </c>
+      <c r="R29" s="3">
+        <v>4</v>
+      </c>
+      <c r="S29" s="3">
+        <v>4</v>
+      </c>
+      <c r="T29" s="3">
+        <v>3</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="W29" s="2">
+        <v>0.6984999999999999</v>
+      </c>
+      <c r="X29" s="2">
+        <v>0.69019999999999992</v>
+      </c>
+      <c r="Y29" s="2">
+        <v>0.46860000000000002</v>
+      </c>
+      <c r="Z29" s="2">
+        <v>0.60609999999999997</v>
+      </c>
+      <c r="AA29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="2">
+        <v>0.69629999999999992</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30">
+        <v>573</v>
+      </c>
+      <c r="D30" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30">
+        <v>33</v>
+      </c>
+      <c r="F30" s="1">
+        <v>44537</v>
+      </c>
+      <c r="G30" t="s">
+        <v>32</v>
+      </c>
+      <c r="H30" s="2">
+        <v>0.53459999999999996</v>
+      </c>
+      <c r="I30" s="2">
+        <v>0.46630000000000005</v>
+      </c>
+      <c r="J30" s="2">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="K30" s="2">
+        <v>0.121</v>
+      </c>
+      <c r="L30" s="3">
+        <v>1</v>
+      </c>
+      <c r="M30" s="3">
+        <v>1</v>
+      </c>
+      <c r="N30" s="3">
+        <v>9</v>
+      </c>
+      <c r="O30" s="3">
+        <v>6</v>
+      </c>
+      <c r="P30" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>2</v>
+      </c>
+      <c r="R30" s="3">
+        <v>5</v>
+      </c>
+      <c r="S30" s="3">
+        <v>2</v>
+      </c>
+      <c r="T30" s="3">
+        <v>3</v>
+      </c>
+      <c r="U30" s="3">
+        <v>2</v>
+      </c>
+      <c r="V30" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="W30" s="2">
+        <v>0.39560000000000001</v>
+      </c>
+      <c r="X30" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y30" s="2">
+        <v>0.48630000000000001</v>
+      </c>
+      <c r="Z30" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="AA30" s="2">
+        <v>0.46</v>
+      </c>
+      <c r="AB30" s="2">
+        <v>0.44380000000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31">
+        <v>587</v>
+      </c>
+      <c r="D31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31">
+        <v>31</v>
+      </c>
+      <c r="F31" s="1">
+        <v>44538</v>
+      </c>
+      <c r="G31" t="s">
+        <v>29</v>
+      </c>
+      <c r="H31" s="2">
+        <v>0.59950000000000003</v>
+      </c>
+      <c r="I31" s="2">
+        <v>0.5675</v>
+      </c>
+      <c r="J31" s="2">
+        <v>0.19399999999999998</v>
+      </c>
+      <c r="K31" s="2">
+        <v>0.129</v>
+      </c>
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>2</v>
+      </c>
+      <c r="N31" s="3">
+        <v>6</v>
+      </c>
+      <c r="O31" s="3">
+        <v>8</v>
+      </c>
+      <c r="P31" s="3">
+        <v>7</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>1</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>3</v>
+      </c>
+      <c r="T31" s="3">
+        <v>3</v>
+      </c>
+      <c r="U31" s="3">
+        <v>1</v>
+      </c>
+      <c r="V31" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="W31" s="2">
+        <v>0.70900000000000007</v>
+      </c>
+      <c r="X31" s="2">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="Y31" s="2">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="Z31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="2">
+        <v>0.502</v>
+      </c>
+      <c r="AB31" s="2">
+        <v>0.42599999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32">
+        <v>600</v>
+      </c>
+      <c r="D32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32">
+        <v>34</v>
+      </c>
+      <c r="F32" s="1">
+        <v>44539</v>
+      </c>
+      <c r="G32" t="s">
+        <v>28</v>
+      </c>
+      <c r="H32" s="2">
+        <v>0.72310000000000008</v>
+      </c>
+      <c r="I32" s="2">
+        <v>0.64529999999999998</v>
+      </c>
+      <c r="J32" s="2">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="K32" s="2">
+        <v>0.17600000000000002</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <v>10</v>
+      </c>
+      <c r="O32" s="3">
+        <v>13</v>
+      </c>
+      <c r="P32" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>1</v>
+      </c>
+      <c r="R32" s="3">
+        <v>2</v>
+      </c>
+      <c r="S32" s="3">
+        <v>3</v>
+      </c>
+      <c r="T32" s="3">
+        <v>1</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="W32" s="2">
+        <v>0.49979999999999997</v>
+      </c>
+      <c r="X32" s="2">
+        <v>0.81330000000000002</v>
+      </c>
+      <c r="Y32" s="2">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="Z32" s="2">
+        <v>0.77229999999999999</v>
+      </c>
+      <c r="AA32" s="2">
+        <v>0.89769999999999994</v>
+      </c>
+      <c r="AB32" s="2">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33">
+        <v>610</v>
+      </c>
+      <c r="D33" t="s">
+        <v>59</v>
+      </c>
+      <c r="E33">
+        <v>11</v>
+      </c>
+      <c r="F33" s="1">
+        <v>44540</v>
+      </c>
+      <c r="G33" t="s">
+        <v>28</v>
+      </c>
+      <c r="H33" s="2">
+        <v>0.66659999999999997</v>
+      </c>
+      <c r="I33" s="2">
+        <v>0.57710000000000006</v>
+      </c>
+      <c r="J33" s="2">
+        <v>0.182</v>
+      </c>
+      <c r="K33" s="2">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
+        <v>2</v>
+      </c>
+      <c r="O33" s="3">
+        <v>3</v>
+      </c>
+      <c r="P33" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>1</v>
+      </c>
+      <c r="R33" s="3">
+        <v>1</v>
+      </c>
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
+        <v>1</v>
+      </c>
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="W33" s="2">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="X33" s="2">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="Y33" s="2">
+        <v>0.75599999999999989</v>
+      </c>
+      <c r="Z33" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34">
+        <v>620</v>
+      </c>
+      <c r="D34" t="s">
+        <v>56</v>
+      </c>
+      <c r="E34">
+        <v>19</v>
+      </c>
+      <c r="F34" s="1">
+        <v>44541</v>
+      </c>
+      <c r="G34" t="s">
+        <v>28</v>
+      </c>
+      <c r="H34" s="2">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="I34" s="2">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="J34" s="2">
+        <v>0.105</v>
+      </c>
+      <c r="K34" s="2">
+        <v>0.111</v>
+      </c>
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>1</v>
+      </c>
+      <c r="N34" s="3">
+        <v>2</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>6</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>1</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>5</v>
+      </c>
+      <c r="T34" s="3">
+        <v>1</v>
+      </c>
+      <c r="U34" s="3">
+        <v>3</v>
+      </c>
+      <c r="V34" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="W34" s="2">
+        <v>0.70379999999999998</v>
+      </c>
+      <c r="X34" s="2">
+        <v>0.80319999999999991</v>
+      </c>
+      <c r="Y34" s="2">
+        <v>0.40079999999999999</v>
+      </c>
+      <c r="Z34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="2">
+        <v>4.0800000000000003E-2</v>
+      </c>
+      <c r="AB34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="2"/>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35">
+        <v>632</v>
+      </c>
+      <c r="D35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35">
+        <v>68</v>
+      </c>
+      <c r="F35" s="1">
+        <v>44542</v>
+      </c>
+      <c r="G35" t="s">
+        <v>28</v>
+      </c>
+      <c r="H35" s="2">
+        <v>0.7097</v>
+      </c>
+      <c r="I35" s="2">
+        <v>0.76219999999999999</v>
+      </c>
+      <c r="J35" s="2">
+        <v>0.17600000000000002</v>
+      </c>
+      <c r="K35" s="2">
+        <v>0.27899999999999997</v>
+      </c>
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
+        <v>12</v>
+      </c>
+      <c r="O35" s="3">
+        <v>35</v>
+      </c>
+      <c r="P35" s="3">
+        <v>5</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>2</v>
+      </c>
+      <c r="R35" s="3">
+        <v>5</v>
+      </c>
+      <c r="S35" s="3">
+        <v>4</v>
+      </c>
+      <c r="T35" s="3">
+        <v>4</v>
+      </c>
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="W35" s="2">
+        <v>0.99400000000000011</v>
+      </c>
+      <c r="X35" s="2">
+        <v>0.64599999999999991</v>
+      </c>
+      <c r="Y35" s="2">
+        <v>0.80099999999999993</v>
+      </c>
+      <c r="Z35" s="2">
+        <v>0.878</v>
+      </c>
+      <c r="AA35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="2">
+        <v>0.69099999999999995</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36">
+        <v>643</v>
+      </c>
+      <c r="D36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36">
+        <v>10</v>
+      </c>
+      <c r="F36" s="1">
+        <v>44543</v>
+      </c>
+      <c r="G36" t="s">
+        <v>28</v>
+      </c>
+      <c r="H36" s="2">
+        <v>0.75370000000000004</v>
+      </c>
+      <c r="I36" s="2">
+        <v>0.62119999999999997</v>
+      </c>
+      <c r="J36" s="2">
+        <v>0.111</v>
+      </c>
+      <c r="K36" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="L36" s="3">
+        <v>0</v>
+      </c>
+      <c r="M36" s="3">
+        <v>1</v>
+      </c>
+      <c r="N36" s="3">
+        <v>1</v>
+      </c>
+      <c r="O36" s="3">
+        <v>0</v>
+      </c>
+      <c r="P36" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q36" s="3">
+        <v>2</v>
+      </c>
+      <c r="R36" s="3">
+        <v>2</v>
+      </c>
+      <c r="S36" s="3">
+        <v>0</v>
+      </c>
+      <c r="T36" s="3">
+        <v>0</v>
+      </c>
+      <c r="U36" s="3">
+        <v>0</v>
+      </c>
+      <c r="V36" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="W36" s="2">
+        <v>0.77329999999999999</v>
+      </c>
+      <c r="X36" s="2">
+        <v>0.82790000000000008</v>
+      </c>
+      <c r="Y36" s="2">
+        <v>0.63049999999999995</v>
+      </c>
+      <c r="Z36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>37</v>
+      </c>
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37">
+        <v>652</v>
+      </c>
+      <c r="D37" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37">
+        <v>40</v>
+      </c>
+      <c r="F37" s="1">
+        <v>44544</v>
+      </c>
+      <c r="G37" t="s">
+        <v>28</v>
+      </c>
+      <c r="H37" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I37" s="2">
+        <v>0.17190000000000003</v>
+      </c>
+      <c r="J37" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="K37" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="L37" s="3">
+        <v>0</v>
+      </c>
+      <c r="M37" s="3">
+        <v>4</v>
+      </c>
+      <c r="N37" s="3">
+        <v>6</v>
+      </c>
+      <c r="O37" s="3">
+        <v>5</v>
+      </c>
+      <c r="P37" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q37" s="3">
+        <v>2</v>
+      </c>
+      <c r="R37" s="3">
+        <v>3</v>
+      </c>
+      <c r="S37" s="3">
+        <v>4</v>
+      </c>
+      <c r="T37" s="3">
+        <v>9</v>
+      </c>
+      <c r="U37" s="3">
+        <v>4</v>
+      </c>
+      <c r="V37" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="W37" s="2">
+        <v>0.18420000000000003</v>
+      </c>
+      <c r="X37" s="2">
+        <v>0.32950000000000002</v>
+      </c>
+      <c r="Y37" s="2">
+        <v>0.73239999999999994</v>
+      </c>
+      <c r="Z37" s="2">
+        <v>0.35979999999999995</v>
+      </c>
+      <c r="AA37" s="2">
+        <v>0.35090000000000005</v>
+      </c>
+      <c r="AB37" s="2">
+        <v>0.1585</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38">
+        <v>639</v>
+      </c>
+      <c r="D38" t="s">
+        <v>54</v>
+      </c>
+      <c r="E38">
+        <v>26</v>
+      </c>
+      <c r="F38" s="1">
+        <v>44545</v>
+      </c>
+      <c r="G38" t="s">
+        <v>28</v>
+      </c>
+      <c r="H38" s="2">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="I38" s="2">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="J38" s="2">
+        <v>0.115</v>
+      </c>
+      <c r="K38" s="2">
+        <v>0.154</v>
+      </c>
+      <c r="L38" s="3">
+        <v>0</v>
+      </c>
+      <c r="M38" s="3">
+        <v>0</v>
+      </c>
+      <c r="N38" s="3">
+        <v>3</v>
+      </c>
+      <c r="O38" s="3">
+        <v>5</v>
+      </c>
+      <c r="P38" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q38" s="3">
+        <v>3</v>
+      </c>
+      <c r="R38" s="3">
+        <v>4</v>
+      </c>
+      <c r="S38" s="3">
+        <v>2</v>
+      </c>
+      <c r="T38" s="3">
+        <v>5</v>
+      </c>
+      <c r="U38" s="3">
+        <v>0</v>
+      </c>
+      <c r="V38" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="W38" s="2">
+        <v>0.5766</v>
+      </c>
+      <c r="X38" s="2">
+        <v>0.58399999999999996</v>
+      </c>
+      <c r="Y38" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="2">
+        <v>0.35509999999999997</v>
+      </c>
+      <c r="AB38" s="2">
+        <v>0.61060000000000003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>39</v>
+      </c>
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39">
+        <v>626</v>
+      </c>
+      <c r="D39" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39">
+        <v>30</v>
+      </c>
+      <c r="F39" s="1">
+        <v>44546</v>
+      </c>
+      <c r="G39" t="s">
+        <v>60</v>
+      </c>
+      <c r="H39" s="2">
+        <v>0.55430000000000001</v>
+      </c>
+      <c r="I39" s="2">
+        <v>0.69480000000000008</v>
+      </c>
+      <c r="J39" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="K39" s="2">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="L39" s="3">
+        <v>0</v>
+      </c>
+      <c r="M39" s="3">
+        <v>1</v>
+      </c>
+      <c r="N39" s="3">
+        <v>3</v>
+      </c>
+      <c r="O39" s="3">
+        <v>5</v>
+      </c>
+      <c r="P39" s="3">
+        <v>6</v>
+      </c>
+      <c r="Q39" s="3">
+        <v>4</v>
+      </c>
+      <c r="R39" s="3">
+        <v>3</v>
+      </c>
+      <c r="S39" s="3">
+        <v>2</v>
+      </c>
+      <c r="T39" s="3">
+        <v>3</v>
+      </c>
+      <c r="U39" s="3">
+        <v>1</v>
+      </c>
+      <c r="V39" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="W39" s="2">
+        <v>0.49810000000000004</v>
+      </c>
+      <c r="X39" s="2">
+        <v>0.9262999999999999</v>
+      </c>
+      <c r="Y39" s="2">
+        <v>0.33729999999999999</v>
+      </c>
+      <c r="Z39" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="AA39" s="2">
+        <v>0.51119999999999999</v>
+      </c>
+      <c r="AB39" s="2">
+        <v>0.57579999999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>40</v>
+      </c>
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40">
+        <v>612</v>
+      </c>
+      <c r="D40" t="s">
+        <v>61</v>
+      </c>
+      <c r="E40">
+        <v>22</v>
+      </c>
+      <c r="F40" s="1">
+        <v>44547</v>
+      </c>
+      <c r="G40" t="s">
+        <v>28</v>
+      </c>
+      <c r="H40" s="2">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="I40" s="2">
+        <v>0.31459999999999999</v>
+      </c>
+      <c r="J40" s="2">
+        <v>0.182</v>
+      </c>
+      <c r="K40" s="2">
+        <v>0.182</v>
+      </c>
+      <c r="L40" s="3">
+        <v>0</v>
+      </c>
+      <c r="M40" s="3">
+        <v>0</v>
+      </c>
+      <c r="N40" s="3">
+        <v>4</v>
+      </c>
+      <c r="O40" s="3">
+        <v>0</v>
+      </c>
+      <c r="P40" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q40" s="3">
+        <v>2</v>
+      </c>
+      <c r="R40" s="3">
+        <v>1</v>
+      </c>
+      <c r="S40" s="3">
+        <v>5</v>
+      </c>
+      <c r="T40" s="3">
+        <v>4</v>
+      </c>
+      <c r="U40" s="3">
+        <v>1</v>
+      </c>
+      <c r="V40" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="W40" s="2">
+        <v>0.2268</v>
+      </c>
+      <c r="X40" s="2">
+        <v>0.43340000000000001</v>
+      </c>
+      <c r="Y40" s="2">
+        <v>0.2883</v>
+      </c>
+      <c r="Z40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="2">
+        <v>0.30790000000000001</v>
+      </c>
+      <c r="AB40" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>41</v>
+      </c>
+      <c r="B41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41">
+        <v>625</v>
+      </c>
+      <c r="D41" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41">
+        <v>20</v>
+      </c>
+      <c r="F41" s="1">
+        <v>44549</v>
+      </c>
+      <c r="G41" t="s">
+        <v>28</v>
+      </c>
+      <c r="H41" s="2">
+        <v>0.70469999999999999</v>
+      </c>
+      <c r="I41" s="2">
+        <v>0.5605</v>
+      </c>
+      <c r="J41" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="K41" s="2">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
+        <v>1</v>
+      </c>
+      <c r="N41" s="3">
+        <v>5</v>
+      </c>
+      <c r="O41" s="3">
+        <v>2</v>
+      </c>
+      <c r="P41" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>4</v>
+      </c>
+      <c r="R41" s="3">
+        <v>2</v>
+      </c>
+      <c r="S41" s="3">
+        <v>4</v>
+      </c>
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="W41" s="2">
+        <v>0.63729999999999998</v>
+      </c>
+      <c r="X41" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y41" s="2">
+        <v>0.17760000000000001</v>
+      </c>
+      <c r="Z41" s="2">
+        <v>0.64190000000000003</v>
+      </c>
+      <c r="AA41" s="2">
+        <v>0.86950000000000005</v>
+      </c>
+      <c r="AB41" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>42</v>
+      </c>
+      <c r="B42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42">
+        <v>636</v>
+      </c>
+      <c r="D42" t="s">
+        <v>62</v>
+      </c>
+      <c r="E42">
+        <v>9</v>
+      </c>
+      <c r="F42" s="1">
+        <v>44550</v>
+      </c>
+      <c r="G42" t="s">
+        <v>28</v>
+      </c>
+      <c r="H42" s="2">
+        <v>0.62869999999999993</v>
+      </c>
+      <c r="I42" s="2">
+        <v>0.50950000000000006</v>
+      </c>
+      <c r="J42" s="2">
+        <v>0.33299999999999996</v>
+      </c>
+      <c r="K42" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>1</v>
+      </c>
+      <c r="N42" s="3">
+        <v>3</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>2</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>2</v>
+      </c>
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="W42" s="2">
+        <v>0.3367</v>
+      </c>
+      <c r="X42" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y42" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z42" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>43</v>
+      </c>
+      <c r="B43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43">
+        <v>650</v>
+      </c>
+      <c r="D43" t="s">
+        <v>53</v>
+      </c>
+      <c r="E43">
+        <v>20</v>
+      </c>
+      <c r="F43" s="1">
+        <v>44551</v>
+      </c>
+      <c r="G43" t="s">
+        <v>28</v>
+      </c>
+      <c r="H43" s="2">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="I43" s="2">
+        <v>0.63570000000000004</v>
+      </c>
+      <c r="J43" s="2">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="K43" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>5</v>
+      </c>
+      <c r="O43" s="3">
+        <v>4</v>
+      </c>
+      <c r="P43" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>3</v>
+      </c>
+      <c r="R43" s="3">
+        <v>5</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="W43" s="2">
+        <v>0.99609999999999999</v>
+      </c>
+      <c r="X43" s="2">
+        <v>0.8014</v>
+      </c>
+      <c r="Y43" s="2">
+        <v>0.56740000000000002</v>
+      </c>
+      <c r="Z43" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="2">
+        <v>0.88129999999999997</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>44</v>
+      </c>
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44">
+        <v>637</v>
+      </c>
+      <c r="D44" t="s">
+        <v>63</v>
+      </c>
+      <c r="E44">
+        <v>34</v>
+      </c>
+      <c r="F44" s="1">
+        <v>44557</v>
+      </c>
+      <c r="G44" t="s">
+        <v>28</v>
+      </c>
+      <c r="H44" s="2">
+        <v>0.78890000000000005</v>
+      </c>
+      <c r="I44" s="2">
+        <v>0.91290000000000004</v>
+      </c>
+      <c r="J44" s="2">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="K44" s="2">
+        <v>0.182</v>
+      </c>
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>6</v>
+      </c>
+      <c r="O44" s="3">
+        <v>10</v>
+      </c>
+      <c r="P44" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>6</v>
+      </c>
+      <c r="R44" s="3">
+        <v>2</v>
+      </c>
+      <c r="S44" s="3">
+        <v>3</v>
+      </c>
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="W44" s="2">
+        <v>0.79760000000000009</v>
+      </c>
+      <c r="X44" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="Y44" s="2">
+        <v>0.79859999999999998</v>
+      </c>
+      <c r="Z44" s="2">
+        <v>0.95620000000000005</v>
+      </c>
+      <c r="AA44" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="2">
+        <v>0.79859999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>45</v>
+      </c>
+      <c r="B45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45">
+        <v>648</v>
+      </c>
+      <c r="D45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45">
+        <v>37</v>
+      </c>
+      <c r="F45" s="1">
+        <v>44558</v>
+      </c>
+      <c r="G45" t="s">
+        <v>28</v>
+      </c>
+      <c r="H45" s="2">
+        <v>0.71400000000000008</v>
+      </c>
+      <c r="I45" s="2">
+        <v>0.71</v>
+      </c>
+      <c r="J45" s="2">
+        <v>0.27</v>
+      </c>
+      <c r="K45" s="2">
+        <v>0.27079999999999999</v>
+      </c>
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
+        <v>2</v>
+      </c>
+      <c r="N45" s="3">
+        <v>10</v>
+      </c>
+      <c r="O45" s="3">
+        <v>9</v>
+      </c>
+      <c r="P45" s="3">
+        <v>6</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>3</v>
+      </c>
+      <c r="R45" s="3">
+        <v>4</v>
+      </c>
+      <c r="S45" s="3">
+        <v>2</v>
+      </c>
+      <c r="T45" s="3">
+        <v>1</v>
+      </c>
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="W45" s="2">
+        <v>0.82109999999999994</v>
+      </c>
+      <c r="X45" s="2">
+        <v>0.8123999999999999</v>
+      </c>
+      <c r="Y45" s="2">
+        <v>0.84620000000000006</v>
+      </c>
+      <c r="Z45" s="2">
+        <v>0.36310000000000003</v>
+      </c>
+      <c r="AA45" s="2">
+        <v>0.25780000000000003</v>
+      </c>
+      <c r="AB45" s="2">
+        <v>0.82400000000000007</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>46</v>
+      </c>
+      <c r="B46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46">
+        <v>638</v>
+      </c>
+      <c r="D46" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46">
+        <v>27</v>
+      </c>
+      <c r="F46" s="1">
+        <v>44559</v>
+      </c>
+      <c r="G46" t="s">
+        <v>28</v>
+      </c>
+      <c r="H46" s="2">
+        <v>0.67099999999999993</v>
+      </c>
+      <c r="I46" s="2">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="J46" s="2">
+        <v>0.192</v>
+      </c>
+      <c r="K46" s="2">
+        <v>0.33299999999999996</v>
+      </c>
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
+        <v>5</v>
+      </c>
+      <c r="O46" s="3">
+        <v>9</v>
+      </c>
+      <c r="P46" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>1</v>
+      </c>
+      <c r="R46" s="3">
+        <v>3</v>
+      </c>
+      <c r="S46" s="3">
+        <v>2</v>
+      </c>
+      <c r="T46" s="3">
+        <v>2</v>
+      </c>
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+      <c r="V46" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="W46" s="2">
+        <v>0.81700000000000006</v>
+      </c>
+      <c r="X46" s="2">
+        <v>0.26219999999999999</v>
+      </c>
+      <c r="Y46" s="2">
+        <v>0.62020000000000008</v>
+      </c>
+      <c r="Z46" s="2">
+        <v>0.73329999999999995</v>
+      </c>
+      <c r="AA46" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="2">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>47</v>
+      </c>
+      <c r="B47" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47">
+        <v>649</v>
+      </c>
+      <c r="D47" t="s">
+        <v>17</v>
+      </c>
+      <c r="E47">
+        <v>8</v>
+      </c>
+      <c r="F47" s="1">
+        <v>44560</v>
+      </c>
+      <c r="G47" t="s">
+        <v>29</v>
+      </c>
+      <c r="H47" s="2">
+        <v>0.88280000000000003</v>
+      </c>
+      <c r="I47" s="2">
+        <v>0.62290000000000001</v>
+      </c>
+      <c r="J47" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="K47" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>1</v>
+      </c>
+      <c r="N47" s="3">
+        <v>1</v>
+      </c>
+      <c r="O47" s="3">
+        <v>1</v>
+      </c>
+      <c r="P47" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>1</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="W47" s="2">
+        <v>1</v>
+      </c>
+      <c r="X47" s="2">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="Y47" s="2">
+        <v>0.81310000000000004</v>
+      </c>
+      <c r="Z47" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="2">
+        <v>0.82340000000000002</v>
+      </c>
+      <c r="AB47" s="2">
+        <v>0.91949999999999998</v>
+      </c>
+      <c r="AC47" s="2"/>
+    </row>
+    <row r="48" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>48</v>
+      </c>
+      <c r="B48" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48">
+        <v>659</v>
+      </c>
+      <c r="D48" t="s">
+        <v>64</v>
+      </c>
+      <c r="E48">
+        <v>18</v>
+      </c>
+      <c r="F48" s="1">
+        <v>44561</v>
+      </c>
+      <c r="G48" t="s">
+        <v>28</v>
+      </c>
+      <c r="H48" s="2">
+        <v>0.76339999999999997</v>
+      </c>
+      <c r="I48" s="2">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="J48" s="2">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="K48" s="2">
+        <v>0.16699999999999998</v>
+      </c>
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
+        <v>1</v>
+      </c>
+      <c r="N48" s="3">
+        <v>7</v>
+      </c>
+      <c r="O48" s="3">
+        <v>2</v>
+      </c>
+      <c r="P48" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>2</v>
+      </c>
+      <c r="R48" s="3">
+        <v>2</v>
+      </c>
+      <c r="S48" s="3">
+        <v>1</v>
+      </c>
+      <c r="T48" s="3">
+        <v>1</v>
+      </c>
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+      <c r="V48" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="W48" s="2">
+        <v>1</v>
+      </c>
+      <c r="X48" s="2">
+        <v>0.62009999999999998</v>
+      </c>
+      <c r="Y48" s="2">
+        <v>0.74569999999999992</v>
+      </c>
+      <c r="Z48" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="AA48" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB48" s="2">
+        <v>0.61970000000000003</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>49</v>
+      </c>
+      <c r="B49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49">
+        <v>666</v>
+      </c>
+      <c r="D49" t="s">
+        <v>54</v>
+      </c>
+      <c r="E49">
+        <v>13</v>
+      </c>
+      <c r="F49" s="1">
+        <v>44562</v>
+      </c>
+      <c r="G49" t="s">
+        <v>28</v>
+      </c>
+      <c r="H49" s="2">
+        <v>0.56479999999999997</v>
+      </c>
+      <c r="I49" s="2">
+        <v>0.48619999999999997</v>
+      </c>
+      <c r="J49" s="2">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="K49" s="2">
+        <v>8.199999999999999E-2</v>
+      </c>
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>3</v>
+      </c>
+      <c r="O49" s="3">
+        <v>2</v>
+      </c>
+      <c r="P49" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>2</v>
+      </c>
+      <c r="R49" s="3">
+        <v>1</v>
+      </c>
+      <c r="S49" s="3">
+        <v>1</v>
+      </c>
+      <c r="T49">
+        <v>1</v>
+      </c>
+      <c r="U49" s="3">
+        <v>1</v>
+      </c>
+      <c r="V49" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="W49" s="2">
+        <v>0.44380000000000003</v>
+      </c>
+      <c r="X49" s="2">
+        <v>0.31640000000000001</v>
+      </c>
+      <c r="Y49" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z49" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="2">
+        <v>0.92569999999999997</v>
+      </c>
+      <c r="AB49" s="2">
+        <v>0.57779999999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>50</v>
+      </c>
+      <c r="B50" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50">
+        <v>667</v>
+      </c>
+      <c r="D50" t="s">
+        <v>15</v>
+      </c>
+      <c r="E50">
+        <v>30</v>
+      </c>
+      <c r="F50" s="1">
+        <v>44563</v>
+      </c>
+      <c r="G50" t="s">
+        <v>28</v>
+      </c>
+      <c r="H50" s="2">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="I50" s="2">
+        <v>0.628</v>
+      </c>
+      <c r="J50" s="2">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="K50" s="2">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>7</v>
+      </c>
+      <c r="O50" s="3">
+        <v>5</v>
+      </c>
+      <c r="P50" s="3">
+        <v>6</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>2</v>
+      </c>
+      <c r="R50" s="3">
+        <v>4</v>
+      </c>
+      <c r="S50" s="3">
+        <v>3</v>
+      </c>
+      <c r="T50" s="3">
+        <v>3</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="W50" s="2">
+        <v>0.40079999999999999</v>
+      </c>
+      <c r="X50" s="2">
+        <v>0.81779999999999997</v>
+      </c>
+      <c r="Y50" s="2">
+        <v>0.62809999999999999</v>
+      </c>
+      <c r="Z50" s="2">
+        <v>0.20230000000000001</v>
+      </c>
+      <c r="AA50" s="2">
+        <v>0.85299999999999998</v>
+      </c>
+      <c r="AB50" s="2">
+        <v>0.78709999999999991</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>51</v>
+      </c>
+      <c r="B51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51">
+        <v>677</v>
+      </c>
+      <c r="D51" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51">
+        <v>15</v>
+      </c>
+      <c r="F51" s="1">
+        <v>44564</v>
+      </c>
+      <c r="G51" t="s">
+        <v>28</v>
+      </c>
+      <c r="H51" s="2">
+        <v>0.72900000000000009</v>
+      </c>
+      <c r="I51" s="2">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="J51" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="K51" s="2">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>6</v>
+      </c>
+      <c r="O51" s="3">
+        <v>2</v>
+      </c>
+      <c r="P51" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>3</v>
+      </c>
+      <c r="R51" s="3">
+        <v>2</v>
+      </c>
+      <c r="S51" s="3">
+        <v>1</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="W51" s="2">
+        <v>0.95579999999999998</v>
+      </c>
+      <c r="X51" s="2">
+        <v>0.29960000000000003</v>
+      </c>
+      <c r="Y51" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z51" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA51" s="2">
+        <v>0.71389999999999998</v>
+      </c>
+      <c r="AB51" s="2">
+        <v>0.96870000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>52</v>
+      </c>
+      <c r="B52" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52">
+        <v>666</v>
+      </c>
+      <c r="D52" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52">
+        <v>48</v>
+      </c>
+      <c r="F52" s="1">
+        <v>44565</v>
+      </c>
+      <c r="G52" t="s">
+        <v>28</v>
+      </c>
+      <c r="H52" s="2">
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="I52" s="2">
+        <v>0.70979999999999999</v>
+      </c>
+      <c r="J52" s="2">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="K52" s="2">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
+        <v>1</v>
+      </c>
+      <c r="N52" s="3">
+        <v>13</v>
+      </c>
+      <c r="O52" s="3">
+        <v>10</v>
+      </c>
+      <c r="P52" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>3</v>
+      </c>
+      <c r="R52" s="3">
+        <v>6</v>
+      </c>
+      <c r="S52" s="3">
+        <v>6</v>
+      </c>
+      <c r="T52" s="3">
+        <v>2</v>
+      </c>
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="W52" s="2">
+        <v>0.36579999999999996</v>
+      </c>
+      <c r="X52" s="2">
+        <v>0.82169999999999999</v>
+      </c>
+      <c r="Y52" s="2">
+        <v>0.83329999999999993</v>
+      </c>
+      <c r="Z52" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="2">
+        <v>0.64410000000000001</v>
+      </c>
+      <c r="AB52" s="2">
+        <v>0.71250000000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>53</v>
+      </c>
+      <c r="B53" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53">
+        <v>676</v>
+      </c>
+      <c r="D53" t="s">
+        <v>15</v>
+      </c>
+      <c r="E53">
+        <v>13</v>
+      </c>
+      <c r="F53" s="1">
+        <v>44566</v>
+      </c>
+      <c r="G53" t="s">
+        <v>28</v>
+      </c>
+      <c r="H53" s="2">
+        <v>0.43450000000000005</v>
+      </c>
+      <c r="I53" s="2">
+        <v>0.39280000000000004</v>
+      </c>
+      <c r="J53" s="2">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="K53" s="2">
+        <v>0.28600000000000003</v>
+      </c>
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>1</v>
+      </c>
+      <c r="N53" s="3">
+        <v>1</v>
+      </c>
+      <c r="O53" s="3">
+        <v>3</v>
+      </c>
+      <c r="P53" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>1</v>
+      </c>
+      <c r="R53" s="3">
+        <v>2</v>
+      </c>
+      <c r="S53" s="3">
+        <v>1</v>
+      </c>
+      <c r="T53" s="3">
+        <v>3</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="W53" s="2">
+        <v>0.2437</v>
+      </c>
+      <c r="X53" s="2">
+        <v>0.39409999999999995</v>
+      </c>
+      <c r="Y53" s="2">
+        <v>0.96530000000000005</v>
+      </c>
+      <c r="Z53" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="2">
+        <v>0.53659999999999997</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>54</v>
+      </c>
+      <c r="B54" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54">
+        <v>686</v>
+      </c>
+      <c r="D54" t="s">
+        <v>54</v>
+      </c>
+      <c r="E54">
+        <v>20</v>
+      </c>
+      <c r="F54" s="1">
+        <v>44567</v>
+      </c>
+      <c r="G54" t="s">
+        <v>28</v>
+      </c>
+      <c r="H54" s="2">
+        <v>0.72049999999999992</v>
+      </c>
+      <c r="I54" s="2">
+        <v>0.5171</v>
+      </c>
+      <c r="J54" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="K54" s="2">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="L54" s="3">
+        <v>0</v>
+      </c>
+      <c r="M54" s="3">
+        <v>0</v>
+      </c>
+      <c r="N54" s="3">
+        <v>6</v>
+      </c>
+      <c r="O54" s="3">
+        <v>5</v>
+      </c>
+      <c r="P54" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>2</v>
+      </c>
+      <c r="R54" s="3">
+        <v>2</v>
+      </c>
+      <c r="S54" s="3">
+        <v>0</v>
+      </c>
+      <c r="T54" s="3">
+        <v>2</v>
+      </c>
+      <c r="U54" s="3">
+        <v>0</v>
+      </c>
+      <c r="V54" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="W54" s="2">
+        <v>0.86450000000000005</v>
+      </c>
+      <c r="X54" s="2">
+        <v>0.3987</v>
+      </c>
+      <c r="Y54" s="2">
+        <v>0.98150000000000004</v>
+      </c>
+      <c r="Z54" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA54" s="2">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="AB54" s="2">
+        <v>0.58599999999999997</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>55</v>
+      </c>
+      <c r="B55" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55">
+        <v>678</v>
+      </c>
+      <c r="D55" t="s">
+        <v>65</v>
+      </c>
+      <c r="E55">
+        <v>59</v>
+      </c>
+      <c r="F55" s="1">
+        <v>44568</v>
+      </c>
+      <c r="G55" t="s">
+        <v>28</v>
+      </c>
+      <c r="H55" s="2">
+        <v>0.63929999999999998</v>
+      </c>
+      <c r="I55" s="2">
+        <v>0.71340000000000003</v>
+      </c>
+      <c r="J55" s="2">
+        <v>0.373</v>
+      </c>
+      <c r="K55" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="L55" s="3">
+        <v>0</v>
+      </c>
+      <c r="M55" s="3">
+        <v>2</v>
+      </c>
+      <c r="N55" s="3">
+        <v>22</v>
+      </c>
+      <c r="O55" s="3">
+        <v>10</v>
+      </c>
+      <c r="P55" s="3">
+        <v>6</v>
+      </c>
+      <c r="Q55" s="3">
+        <v>1</v>
+      </c>
+      <c r="R55" s="3">
+        <v>7</v>
+      </c>
+      <c r="S55" s="3">
+        <v>6</v>
+      </c>
+      <c r="T55" s="3">
+        <v>5</v>
+      </c>
+      <c r="U55" s="3">
+        <v>0</v>
+      </c>
+      <c r="V55" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="W55" s="2">
+        <v>0.68909999999999993</v>
+      </c>
+      <c r="X55" s="2">
+        <v>0.60159999999999991</v>
+      </c>
+      <c r="Y55" s="2">
+        <v>0.52510000000000001</v>
+      </c>
+      <c r="Z55" s="2">
+        <v>0.42930000000000001</v>
+      </c>
+      <c r="AA55" s="2">
+        <v>0.84129999999999994</v>
+      </c>
+      <c r="AB55" s="2">
+        <v>0.70400000000000007</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
